--- a/Week_13/appdg2/encoded.xlsx
+++ b/Week_13/appdg2/encoded.xlsx
@@ -639,8 +639,12 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
